--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_006.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_006.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
-  </si>
-  <si>
-    <t>(295019AK2.20) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Control room ventilation</t>
-  </si>
-  <si>
-    <t>(295018AA1.03) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Affected systems so as to isolate damaged portions</t>
-  </si>
-  <si>
-    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295001AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor water level response</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295037EA1.18) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RPIS</t>
-  </si>
-  <si>
-    <t>(295027EK2.02) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Components internal to the containment</t>
-  </si>
-  <si>
-    <t>(295005AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Extraction steam/moisture separator isolations</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295003AA1.08) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station blackout instrumentation</t>
-  </si>
-  <si>
-    <t>(295006AK2.02) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell temperature increase</t>
-  </si>
-  <si>
-    <t>(295033EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required to depressurize the reactor</t>
-  </si>
-  <si>
-    <t>(295034EK2.01) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295022AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Closing flow control valve</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
-  </si>
-  <si>
-    <t>(239002K3.04) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization system</t>
-  </si>
-  <si>
-    <t>(218000A4.05) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS timer reset</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of ultimate heat sink</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(217000A2.17) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal suppression pool level </t>
-  </si>
-  <si>
-    <t>(212000K4.08) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SCRAM reset time delay</t>
-  </si>
-  <si>
-    <t>(400000K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(264000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Fuel consumption rate</t>
-  </si>
-  <si>
-    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291002K1.15) SENSORS AND DETECTORS (CFR: 41.7) (TEMPERATURE) Failure modes and indications of T/C, RTD or, thermometers</t>
-  </si>
-  <si>
-    <t>(259002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(262001A3.05) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Synchronization of AC sources</t>
-  </si>
-  <si>
-    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
-  </si>
-  <si>
-    <t>(215005K2.01) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) LPRM channels</t>
-  </si>
-  <si>
-    <t>(215003A2.06) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty range switch</t>
-  </si>
-  <si>
-    <t>(215004K4.07) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS channel bypass</t>
-  </si>
-  <si>
-    <t>(203000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Recirculation system (BWR 3, 4)</t>
-  </si>
-  <si>
-    <t>(223002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(239002K3.05) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool</t>
-  </si>
-  <si>
-    <t>(218000A4.04) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS inhibit</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Intake/traveling screen high differential pressure/ differential level</t>
-  </si>
-  <si>
-    <t>(245000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(234000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.5 / 45.5) Refuel floor radiation levels/airborne levels</t>
-  </si>
-  <si>
-    <t>(241000K3.03) Knowledge of the effect that a loss or malfunction of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(290003A4.01) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiate/reset system</t>
-  </si>
-  <si>
-    <t>(268000) (SF9 RW) RADWASTE SYSTEM (291002K1.16) SENSORS AND DETECTORS (CFR: 41.7) (POSITION DETECTORS) Failure modes of reed switches, LVDTs, limit switches, and potentiometers</t>
-  </si>
-  <si>
-    <t>(286000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(239001A3.05) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) MSR drain tank level control</t>
-  </si>
-  <si>
-    <t>(201003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) Hydraulics</t>
-  </si>
-  <si>
-    <t>(204000K2.02) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(230000A2.13) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
-  </si>
-  <si>
-    <t>(239003K4.05) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Assurance that any MSIV leakage will pass through the system and into standby gas treatment before release to the atmosphere</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
+    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295024EK2.11) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell spray (RHR) (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295025EK3.10) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(700000AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Under-excitation</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(600000AK2.08) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Portable fire suppression systems</t>
+  </si>
+  <si>
+    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295019AA1.02) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) System valves</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(295004AK2.03) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
+  </si>
+  <si>
+    <t>(295016AA2.03) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA1.01) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
+  </si>
+  <si>
+    <t>(295036EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Maximum safe operating limit</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295012AA1.01) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell ventilation system</t>
+  </si>
+  <si>
+    <t>(295009AK2.02) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control</t>
+  </si>
+  <si>
+    <t>(295022AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(211000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
+  </si>
+  <si>
+    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
+  </si>
+  <si>
+    <t>(259002K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) ECCS</t>
+  </si>
+  <si>
+    <t>(217000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(215004K4.04) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Changing detector position</t>
+  </si>
+  <si>
+    <t>(239002A4.05) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(510000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(263000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Degraded voltage</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291004K1.13) PUMPS (CFR: 41.3) (CENTRIFUGAL) Theory of operation of a centrifugal pump</t>
+  </si>
+  <si>
+    <t>(215005A3.03) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Meters and recorders</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(262001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+  </si>
+  <si>
+    <t>(209002K2.02) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(203000K4.16) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Manual system initiation</t>
+  </si>
+  <si>
+    <t>(223002A4.07) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system initiations</t>
+  </si>
+  <si>
+    <t>(264000A2.08) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation of emergency generator room fire protection system</t>
+  </si>
+  <si>
+    <t>(209001K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(202001A2.13) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Carryunder</t>
+  </si>
+  <si>
+    <t>(256000K3.10) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Gland seal steam system</t>
+  </si>
+  <si>
+    <t>(239001K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (291004K1.11) PUMPS (CFR: 41.3) (CENTRIFUGAL) Definition of pump shutoff head</t>
+  </si>
+  <si>
+    <t>(233000A3.01) Ability to monitor automatic operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(204000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.5 / 45.3) System temperatures</t>
+  </si>
+  <si>
+    <t>(216000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(201005A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) First stage shell pressure/turbine load</t>
+  </si>
+  <si>
+    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(241000K4.08) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Feedwater heater isolation</t>
+  </si>
+  <si>
+    <t>(223001A4.03) Ability to manually operate and/or monitor the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES in the control room: (CFR: 41.7 / 45.5 to 45.8) Air dilution valves to drywell and suppression pool</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292003K1.01) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the concept of subcritical multiplication</t>
   </si>
   <si>
     <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
   </si>
   <si>
-    <t>(293009K1.05) CORE THERMAL LIMITS (CFR: 41.14) State the reason thermal limits are necessary</t>
-  </si>
-  <si>
-    <t>(293008K1.20) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define carryunder</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209002A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump seal failure</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(217000A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(219000A2.05) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical failures</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(510001A2.04) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) System leakage/rupture</t>
-  </si>
-  <si>
-    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293008K1.07) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define nucleate boiling, subcooled nucleate boiling, and bulk boiling</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295024EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation signal</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(290002A2.03) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Control rod drop accident</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215001A2.06) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -391,211 +391,211 @@
     <t>295024</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295001</t>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295031</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
     <t>295027</t>
   </si>
   <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295021</t>
   </si>
   <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>600000</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>295010</t>
   </si>
   <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>290002</t>
   </si>
   <si>
     <t>230000</t>
   </si>
   <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>510001</t>
+    <t>215001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
         <v>115</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
         <v>115</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
